--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.42</v>
+        <v>16.466</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.172</v>
+        <v>5.153</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.212</v>
+        <v>-21.604</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.606</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.902000000000001</v>
+        <v>4.867</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.986</v>
+        <v>-21.914</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.086</v>
+        <v>16.284</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.264</v>
+        <v>16.483</v>
       </c>
     </row>
     <row r="20">
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.026</v>
+        <v>6.406999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.328</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.561999999999999</v>
+        <v>5.237</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.686</v>
+        <v>6.02</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>6.184</v>
+        <v>5.847</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.572</v>
+        <v>-19.92</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.55</v>
+        <v>16.586</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.882</v>
+        <v>16.753</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.594</v>
+        <v>16.278</v>
       </c>
     </row>
     <row r="48">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.576</v>
+        <v>-21.795</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.496</v>
+        <v>16.567</v>
       </c>
     </row>
     <row r="59">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.586</v>
+        <v>-21.473</v>
       </c>
       <c r="B68" t="n">
-        <v>4.666</v>
+        <v>5.512</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.558</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="74">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>5.81</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.864</v>
+        <v>-20.899</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-20.309</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.522</v>
+        <v>4.836</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>5.358000000000001</v>
+        <v>5.058000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.63</v>
+        <v>17.564</v>
       </c>
     </row>
     <row r="96">
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>7.165999999999999</v>
+        <v>6.692</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.272</v>
+        <v>5.095000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,7 +2148,7 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.353999999999999</v>
+        <v>7.628000000000002</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.666</v>
+        <v>16.677</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.998</v>
+        <v>7.74</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
